--- a/test-case-update.xlsx
+++ b/test-case-update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="-210" windowWidth="12120" windowHeight="9120" tabRatio="821" activeTab="1"/>
+    <workbookView xWindow="1635" yWindow="-210" windowWidth="12120" windowHeight="9120" tabRatio="821"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="247">
   <si>
     <t>TC16</t>
   </si>
@@ -1406,9 +1406,6 @@
     </r>
   </si>
   <si>
-    <t>Paas</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Thấy </t>
     </r>
@@ -1662,6 +1659,60 @@
       </rPr>
       <t>thông báo "Chưa nhập SĐT".</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Nhập tên đăng nhập: " tu" (nhập có khoản trắng ở đầu)
+2: nhập pass: "1"
+3: Click Login
+</t>
+  </si>
+  <si>
+    <t>xuất hiện Message Box thông báo: "Đăng nhập không thành công! Sai tên hoặc mật khẩu."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Nhập tên đăng nhập: "tu " (khoản trắng ở cuối)
+2: nhập pass: "1"
+3: Click Login
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Nhập tên đăng nhập: "tu"
+2: nhập pass: " " (nhập pass là khoản trắng)
+3: Click Login
+</t>
+  </si>
+  <si>
+    <t>TC68</t>
+  </si>
+  <si>
+    <t>TC69</t>
+  </si>
+  <si>
+    <t>TC70</t>
+  </si>
+  <si>
+    <t>TC71</t>
+  </si>
+  <si>
+    <t>1: SĐT: "    " (nhập khoản trắng)
+2: Click button Tìm.</t>
+  </si>
+  <si>
+    <r>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> thông báo "lỗi định dạng nhập! Vui lòng kiểm tra lại).</t>
+    </r>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
 </sst>
 </file>
@@ -2684,6 +2735,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2702,139 +2816,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2842,42 +2929,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5482,8 +5533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5554,11 +5605,11 @@
       <c r="B6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="126"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="147"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -5567,11 +5618,11 @@
       <c r="B7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="125">
+      <c r="C7" s="146">
         <v>0</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="147"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -5673,11 +5724,19 @@
       <c r="H14" s="91"/>
     </row>
     <row r="15" spans="1:8" s="37" customFormat="1" ht="12.75">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="38">
+        <v>43786</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>246</v>
+      </c>
       <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="77" t="s">
+        <v>213</v>
+      </c>
       <c r="G15" s="43"/>
       <c r="H15" s="44"/>
     </row>
@@ -5772,10 +5831,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -5794,9 +5853,9 @@
       <c r="A1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -5807,9 +5866,9 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -5822,49 +5881,49 @@
       <c r="A3" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="159"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" ht="12.75">
       <c r="A5" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="153"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="157"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5872,22 +5931,22 @@
         <v>39</v>
       </c>
       <c r="B6" s="92">
-        <f>COUNTIF(I12:I84,"Pass")</f>
-        <v>58</v>
+        <f>COUNTIF(I12:I88,"Pass")</f>
+        <v>63</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(I10:I800,"Pending")</f>
+        <f>COUNTIF(I10:I803,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -5895,29 +5954,29 @@
         <v>10</v>
       </c>
       <c r="B7" s="93">
-        <f>COUNTIF(I12:I84,"Fail")</f>
+        <f>COUNTIF(I12:I88,"Fail")</f>
         <v>8</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="66">
-        <f>COUNTA(A12:A84) -6</f>
-        <v>67</v>
+        <f>COUNTA(A12:A88) -6</f>
+        <v>71</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="150"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -5927,70 +5986,70 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="160" t="s">
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="132" t="s">
+      <c r="I9" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="132" t="s">
+      <c r="J9" s="161" t="s">
         <v>78</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="132"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="161"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="162"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="168"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="154"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="158"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="51" outlineLevel="1">
       <c r="A13" s="88" t="s">
@@ -6002,11 +6061,11 @@
       <c r="C13" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
       <c r="G13" s="86"/>
       <c r="H13" s="102" t="s">
         <v>84</v>
@@ -6026,11 +6085,11 @@
       <c r="C14" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="146" t="s">
+      <c r="D14" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="147"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="182"/>
       <c r="G14" s="112"/>
       <c r="H14" s="102" t="s">
         <v>84</v>
@@ -6040,22 +6099,22 @@
       </c>
       <c r="J14" s="85"/>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="51" outlineLevel="1">
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="53.25" customHeight="1" outlineLevel="1">
       <c r="A15" s="88" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="94" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="146" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="112"/>
+        <v>236</v>
+      </c>
+      <c r="D15" s="181" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="151"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="125"/>
       <c r="H15" s="102" t="s">
         <v>84</v>
       </c>
@@ -6064,22 +6123,22 @@
       </c>
       <c r="J15" s="85"/>
     </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="51" outlineLevel="1">
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="53.25" customHeight="1" outlineLevel="1">
       <c r="A16" s="88" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="146" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="130"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="86"/>
+        <v>238</v>
+      </c>
+      <c r="D16" s="181" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="151"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="102" t="s">
         <v>84</v>
       </c>
@@ -6088,37 +6147,47 @@
       </c>
       <c r="J16" s="85"/>
     </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A17" s="127" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="101"/>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="53.25" customHeight="1" outlineLevel="1">
+      <c r="A17" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="181" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="151"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="85"/>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="51" outlineLevel="1">
       <c r="A18" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="181" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="151"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="102" t="s">
         <v>84</v>
       </c>
       <c r="I18" s="87" t="s">
@@ -6126,23 +6195,23 @@
       </c>
       <c r="J18" s="85"/>
     </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="51" outlineLevel="1">
       <c r="A19" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="181" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="151"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="102" t="s">
         <v>84</v>
       </c>
       <c r="I19" s="87" t="s">
@@ -6150,29 +6219,19 @@
       </c>
       <c r="J19" s="85"/>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A20" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="85"/>
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A20" s="148" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="149"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="101"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A21" s="88" t="s">
@@ -6182,14 +6241,14 @@
         <v>82</v>
       </c>
       <c r="C21" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="129" t="s">
-        <v>225</v>
-      </c>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="109"/>
+        <v>96</v>
+      </c>
+      <c r="D21" s="150" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="113" t="s">
         <v>84</v>
       </c>
@@ -6198,21 +6257,21 @@
       </c>
       <c r="J21" s="85"/>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" ht="92.25" customHeight="1" outlineLevel="1">
+    <row r="22" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A22" s="88" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C22" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
+        <v>95</v>
+      </c>
+      <c r="D22" s="150" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
       <c r="G22" s="109"/>
       <c r="H22" s="113" t="s">
         <v>84</v>
@@ -6222,22 +6281,22 @@
       </c>
       <c r="J22" s="85"/>
     </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" ht="88.5" customHeight="1" outlineLevel="1">
+    <row r="23" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A23" s="88" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="129" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="112"/>
+        <v>94</v>
+      </c>
+      <c r="D23" s="150" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="109"/>
       <c r="H23" s="113" t="s">
         <v>84</v>
       </c>
@@ -6246,22 +6305,22 @@
       </c>
       <c r="J23" s="85"/>
     </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" ht="111.75" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A24" s="88" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C24" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="129" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="112"/>
+        <v>223</v>
+      </c>
+      <c r="D24" s="150" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="109"/>
       <c r="H24" s="113" t="s">
         <v>84</v>
       </c>
@@ -6270,93 +6329,93 @@
       </c>
       <c r="J24" s="85"/>
     </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A25" s="127" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="111"/>
-    </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+    <row r="25" spans="1:10" s="4" customFormat="1" ht="92.25" customHeight="1" outlineLevel="1">
+      <c r="A25" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="150" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="85"/>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" ht="88.5" customHeight="1" outlineLevel="1">
       <c r="A26" s="88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="98" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C26" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
+        <v>103</v>
+      </c>
+      <c r="D26" s="150" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
       <c r="G26" s="112"/>
-      <c r="H26" s="114">
-        <v>43596</v>
+      <c r="H26" s="113" t="s">
+        <v>84</v>
       </c>
       <c r="I26" s="87" t="s">
         <v>39</v>
       </c>
       <c r="J26" s="85"/>
     </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+    <row r="27" spans="1:10" s="4" customFormat="1" ht="111.75" customHeight="1" outlineLevel="1">
       <c r="A27" s="88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="98" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C27" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="129" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
+        <v>226</v>
+      </c>
+      <c r="D27" s="150" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
       <c r="G27" s="112"/>
-      <c r="H27" s="114">
-        <v>43749</v>
+      <c r="H27" s="113" t="s">
+        <v>84</v>
       </c>
       <c r="I27" s="87" t="s">
         <v>39</v>
       </c>
       <c r="J27" s="85"/>
     </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" ht="88.5" customHeight="1" outlineLevel="1">
-      <c r="A28" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="D28" s="129" t="s">
-        <v>229</v>
-      </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="114">
-        <v>43749</v>
-      </c>
-      <c r="I28" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="85"/>
-    </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" ht="92.25" customHeight="1" outlineLevel="1">
+    <row r="28" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A28" s="148" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="111"/>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
       <c r="A29" s="88" t="s">
         <v>49</v>
       </c>
@@ -6364,61 +6423,61 @@
         <v>98</v>
       </c>
       <c r="C29" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="129" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="117"/>
+        <v>99</v>
+      </c>
+      <c r="D29" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="112"/>
       <c r="H29" s="114">
-        <v>43749</v>
+        <v>43596</v>
       </c>
       <c r="I29" s="87" t="s">
         <v>39</v>
       </c>
       <c r="J29" s="85"/>
     </row>
-    <row r="30" spans="1:10" s="171" customFormat="1" ht="33.75" customHeight="1" outlineLevel="1">
-      <c r="A30" s="163" t="s">
+    <row r="30" spans="1:10" s="4" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="A30" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" s="165" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="166" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168"/>
+      <c r="B30" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="150" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="112"/>
       <c r="H30" s="114">
         <v>43749</v>
       </c>
-      <c r="I30" s="169" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="170"/>
-    </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" ht="99.75" customHeight="1" outlineLevel="1">
-      <c r="A31" s="163" t="s">
+      <c r="I30" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="85"/>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1" ht="88.5" customHeight="1" outlineLevel="1">
+      <c r="A31" s="88" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="98" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="129" t="s">
-        <v>219</v>
-      </c>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
+        <v>227</v>
+      </c>
+      <c r="D31" s="150" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
       <c r="G31" s="117"/>
       <c r="H31" s="114">
         <v>43749</v>
@@ -6428,22 +6487,22 @@
       </c>
       <c r="J31" s="85"/>
     </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
-      <c r="A32" s="163" t="s">
+    <row r="32" spans="1:10" s="4" customFormat="1" ht="92.25" customHeight="1" outlineLevel="1">
+      <c r="A32" s="88" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="98" t="s">
         <v>98</v>
       </c>
       <c r="C32" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="129" t="s">
-        <v>218</v>
-      </c>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="124"/>
+        <v>107</v>
+      </c>
+      <c r="D32" s="150" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="117"/>
       <c r="H32" s="114">
         <v>43749</v>
       </c>
@@ -6452,45 +6511,45 @@
       </c>
       <c r="J32" s="85"/>
     </row>
-    <row r="33" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
-      <c r="A33" s="163" t="s">
+    <row r="33" spans="1:10" s="131" customFormat="1" ht="33.75" customHeight="1" outlineLevel="1">
+      <c r="A33" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="98" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="129" t="s">
-        <v>221</v>
-      </c>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="117"/>
+      <c r="B33" s="126" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="127" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="184" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="128"/>
       <c r="H33" s="114">
         <v>43749</v>
       </c>
-      <c r="I33" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="85"/>
-    </row>
-    <row r="34" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
-      <c r="A34" s="163" t="s">
+      <c r="I33" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="130"/>
+    </row>
+    <row r="34" spans="1:10" s="4" customFormat="1" ht="99.75" customHeight="1" outlineLevel="1">
+      <c r="A34" s="88" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="98" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C34" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="129" t="s">
-        <v>220</v>
-      </c>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
+        <v>108</v>
+      </c>
+      <c r="D34" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
       <c r="G34" s="117"/>
       <c r="H34" s="114">
         <v>43749</v>
@@ -6500,21 +6559,21 @@
       </c>
       <c r="J34" s="85"/>
     </row>
-    <row r="35" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
-      <c r="A35" s="163" t="s">
+    <row r="35" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
+      <c r="A35" s="88" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="98" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C35" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="129" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35" s="131"/>
-      <c r="F35" s="131"/>
+        <v>109</v>
+      </c>
+      <c r="D35" s="150" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
       <c r="G35" s="124"/>
       <c r="H35" s="114">
         <v>43749</v>
@@ -6524,21 +6583,21 @@
       </c>
       <c r="J35" s="85"/>
     </row>
-    <row r="36" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
-      <c r="A36" s="163" t="s">
+    <row r="36" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
+      <c r="A36" s="88" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>105</v>
       </c>
       <c r="C36" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="D36" s="129" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
+        <v>110</v>
+      </c>
+      <c r="D36" s="150" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
       <c r="G36" s="117"/>
       <c r="H36" s="114">
         <v>43749</v>
@@ -6549,20 +6608,20 @@
       <c r="J36" s="85"/>
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
-      <c r="A37" s="163" t="s">
+      <c r="A37" s="88" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="98" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C37" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="129" t="s">
-        <v>222</v>
-      </c>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
+        <v>111</v>
+      </c>
+      <c r="D37" s="150" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
       <c r="G37" s="117"/>
       <c r="H37" s="114">
         <v>43749</v>
@@ -6573,58 +6632,68 @@
       <c r="J37" s="85"/>
     </row>
     <row r="38" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
-      <c r="A38" s="163" t="s">
+      <c r="A38" s="88" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="98" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C38" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="129" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="117"/>
+        <v>112</v>
+      </c>
+      <c r="D38" s="150" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="124"/>
       <c r="H38" s="114">
         <v>43749</v>
       </c>
       <c r="I38" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J38" s="85"/>
     </row>
-    <row r="39" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A39" s="127" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="116"/>
-    </row>
-    <row r="40" spans="1:10" s="4" customFormat="1" ht="90.75" customHeight="1" outlineLevel="1">
+    <row r="39" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
+      <c r="A39" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="99" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="150" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I39" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="85"/>
+    </row>
+    <row r="40" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
       <c r="A40" s="88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" s="98" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C40" s="99" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="129" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
+        <v>115</v>
+      </c>
+      <c r="D40" s="150" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
       <c r="G40" s="117"/>
       <c r="H40" s="114">
         <v>43749</v>
@@ -6634,55 +6703,45 @@
       </c>
       <c r="J40" s="85"/>
     </row>
-    <row r="41" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
+    <row r="41" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
       <c r="A41" s="88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" s="98" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C41" s="99" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
+        <v>117</v>
+      </c>
+      <c r="D41" s="150" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
       <c r="G41" s="117"/>
       <c r="H41" s="114">
         <v>43749</v>
       </c>
       <c r="I41" s="87" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J41" s="85"/>
     </row>
-    <row r="42" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
-      <c r="A42" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="99" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="114">
-        <v>43749</v>
-      </c>
-      <c r="I42" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J42" s="85"/>
-    </row>
-    <row r="43" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
+    <row r="42" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A42" s="148" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="116"/>
+    </row>
+    <row r="43" spans="1:10" s="4" customFormat="1" ht="90.75" customHeight="1" outlineLevel="1">
       <c r="A43" s="88" t="s">
         <v>61</v>
       </c>
@@ -6690,13 +6749,13 @@
         <v>119</v>
       </c>
       <c r="C43" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
+        <v>145</v>
+      </c>
+      <c r="D43" s="150" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
       <c r="G43" s="117"/>
       <c r="H43" s="114">
         <v>43749</v>
@@ -6714,13 +6773,13 @@
         <v>119</v>
       </c>
       <c r="C44" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
+        <v>121</v>
+      </c>
+      <c r="D44" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
       <c r="G44" s="117"/>
       <c r="H44" s="114">
         <v>43749</v>
@@ -6738,13 +6797,13 @@
         <v>119</v>
       </c>
       <c r="C45" s="99" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
       <c r="G45" s="117"/>
       <c r="H45" s="114">
         <v>43749</v>
@@ -6762,13 +6821,13 @@
         <v>119</v>
       </c>
       <c r="C46" s="99" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="129" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
+        <v>128</v>
+      </c>
+      <c r="D46" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
       <c r="G46" s="117"/>
       <c r="H46" s="114">
         <v>43749</v>
@@ -6778,7 +6837,7 @@
       </c>
       <c r="J46" s="85"/>
     </row>
-    <row r="47" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+    <row r="47" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
       <c r="A47" s="88" t="s">
         <v>65</v>
       </c>
@@ -6786,13 +6845,13 @@
         <v>119</v>
       </c>
       <c r="C47" s="99" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="129" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="130"/>
-      <c r="F47" s="130"/>
+        <v>129</v>
+      </c>
+      <c r="D47" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
       <c r="G47" s="117"/>
       <c r="H47" s="114">
         <v>43749</v>
@@ -6802,21 +6861,21 @@
       </c>
       <c r="J47" s="85"/>
     </row>
-    <row r="48" spans="1:10" s="4" customFormat="1" ht="41.25" customHeight="1" outlineLevel="1">
+    <row r="48" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
       <c r="A48" s="88" t="s">
         <v>66</v>
       </c>
       <c r="B48" s="98" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C48" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
+        <v>130</v>
+      </c>
+      <c r="D48" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
       <c r="G48" s="117"/>
       <c r="H48" s="114">
         <v>43749</v>
@@ -6826,79 +6885,79 @@
       </c>
       <c r="J48" s="85"/>
     </row>
-    <row r="49" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+    <row r="49" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
       <c r="A49" s="88" t="s">
         <v>67</v>
       </c>
       <c r="B49" s="98" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C49" s="99" t="s">
-        <v>234</v>
-      </c>
-      <c r="D49" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
+        <v>124</v>
+      </c>
+      <c r="D49" s="150" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
       <c r="G49" s="117"/>
       <c r="H49" s="114">
         <v>43749</v>
       </c>
       <c r="I49" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J49" s="85"/>
     </row>
-    <row r="50" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+    <row r="50" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
       <c r="A50" s="88" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="98" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C50" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
+        <v>126</v>
+      </c>
+      <c r="D50" s="150" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
       <c r="G50" s="117"/>
       <c r="H50" s="114">
         <v>43749</v>
       </c>
       <c r="I50" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J50" s="85"/>
     </row>
-    <row r="51" spans="1:10" s="123" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+    <row r="51" spans="1:10" s="4" customFormat="1" ht="41.25" customHeight="1" outlineLevel="1">
       <c r="A51" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="172" t="s">
+      <c r="B51" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="173" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="133" t="s">
-        <v>217</v>
-      </c>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="121">
+      <c r="C51" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="114">
         <v>43749</v>
       </c>
-      <c r="I51" s="119" t="s">
+      <c r="I51" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="J51" s="122"/>
-    </row>
-    <row r="52" spans="1:10" s="4" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1">
+      <c r="J51" s="85"/>
+    </row>
+    <row r="52" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
       <c r="A52" s="88" t="s">
         <v>141</v>
       </c>
@@ -6906,23 +6965,23 @@
         <v>131</v>
       </c>
       <c r="C52" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
+        <v>233</v>
+      </c>
+      <c r="D52" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="151"/>
+      <c r="F52" s="151"/>
       <c r="G52" s="117"/>
       <c r="H52" s="114">
         <v>43749</v>
       </c>
       <c r="I52" s="87" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J52" s="85"/>
     </row>
-    <row r="53" spans="1:10" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
+    <row r="53" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A53" s="88" t="s">
         <v>142</v>
       </c>
@@ -6930,75 +6989,85 @@
         <v>131</v>
       </c>
       <c r="C53" s="99" t="s">
-        <v>137</v>
-      </c>
-      <c r="D53" s="129" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
+        <v>134</v>
+      </c>
+      <c r="D53" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="151"/>
+      <c r="F53" s="151"/>
       <c r="G53" s="117"/>
       <c r="H53" s="114">
         <v>43749</v>
       </c>
       <c r="I53" s="87" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J53" s="85"/>
     </row>
-    <row r="54" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+    <row r="54" spans="1:10" s="123" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A54" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="99" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" s="129" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="114">
+      <c r="B54" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="133" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="169" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="121">
         <v>43749</v>
       </c>
-      <c r="I54" s="87" t="s">
+      <c r="I54" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="J54" s="85"/>
-    </row>
-    <row r="55" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A55" s="127" t="s">
-        <v>208</v>
-      </c>
-      <c r="B55" s="128"/>
-      <c r="C55" s="128"/>
-      <c r="D55" s="108"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="115"/>
-      <c r="I55" s="115"/>
-      <c r="J55" s="116"/>
-    </row>
-    <row r="56" spans="1:10" s="4" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="J54" s="122"/>
+    </row>
+    <row r="55" spans="1:10" s="4" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1">
+      <c r="A55" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="150" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="151"/>
+      <c r="F55" s="151"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I55" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" s="85"/>
+    </row>
+    <row r="56" spans="1:10" s="4" customFormat="1" ht="72" customHeight="1" outlineLevel="1">
       <c r="A56" s="88" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C56" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="129" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56" s="130"/>
-      <c r="F56" s="130"/>
+        <v>137</v>
+      </c>
+      <c r="D56" s="150" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="151"/>
+      <c r="F56" s="151"/>
       <c r="G56" s="117"/>
       <c r="H56" s="114">
         <v>43749</v>
@@ -7008,21 +7077,21 @@
       </c>
       <c r="J56" s="85"/>
     </row>
-    <row r="57" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
+    <row r="57" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A57" s="88" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B57" s="98" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C57" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
+        <v>140</v>
+      </c>
+      <c r="D57" s="150" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="151"/>
+      <c r="F57" s="151"/>
       <c r="G57" s="117"/>
       <c r="H57" s="114">
         <v>43749</v>
@@ -7032,31 +7101,21 @@
       </c>
       <c r="J57" s="85"/>
     </row>
-    <row r="58" spans="1:10" s="4" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
-      <c r="A58" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="B58" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="99" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" s="129" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" s="130"/>
-      <c r="F58" s="130"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="114">
-        <v>43749</v>
-      </c>
-      <c r="I58" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J58" s="85"/>
-    </row>
-    <row r="59" spans="1:10" s="4" customFormat="1" ht="91.5" customHeight="1" outlineLevel="1">
+    <row r="58" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A58" s="148" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="149"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="116"/>
+    </row>
+    <row r="59" spans="1:10" s="4" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
       <c r="A59" s="88" t="s">
         <v>174</v>
       </c>
@@ -7064,13 +7123,13 @@
         <v>119</v>
       </c>
       <c r="C59" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
+      <c r="E59" s="151"/>
+      <c r="F59" s="151"/>
       <c r="G59" s="117"/>
       <c r="H59" s="114">
         <v>43749</v>
@@ -7088,13 +7147,13 @@
         <v>119</v>
       </c>
       <c r="C60" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="129" t="s">
-        <v>147</v>
-      </c>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
+        <v>148</v>
+      </c>
+      <c r="D60" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="151"/>
+      <c r="F60" s="151"/>
       <c r="G60" s="117"/>
       <c r="H60" s="114">
         <v>43749</v>
@@ -7104,7 +7163,7 @@
       </c>
       <c r="J60" s="85"/>
     </row>
-    <row r="61" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
+    <row r="61" spans="1:10" s="4" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
       <c r="A61" s="88" t="s">
         <v>176</v>
       </c>
@@ -7112,13 +7171,13 @@
         <v>119</v>
       </c>
       <c r="C61" s="99" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E61" s="130"/>
-      <c r="F61" s="130"/>
+      <c r="E61" s="151"/>
+      <c r="F61" s="151"/>
       <c r="G61" s="117"/>
       <c r="H61" s="114">
         <v>43749</v>
@@ -7128,7 +7187,7 @@
       </c>
       <c r="J61" s="85"/>
     </row>
-    <row r="62" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
+    <row r="62" spans="1:10" s="4" customFormat="1" ht="91.5" customHeight="1" outlineLevel="1">
       <c r="A62" s="88" t="s">
         <v>177</v>
       </c>
@@ -7136,13 +7195,13 @@
         <v>119</v>
       </c>
       <c r="C62" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
+      <c r="E62" s="151"/>
+      <c r="F62" s="151"/>
       <c r="G62" s="117"/>
       <c r="H62" s="114">
         <v>43749</v>
@@ -7160,13 +7219,13 @@
         <v>119</v>
       </c>
       <c r="C63" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" s="129" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
+      <c r="E63" s="151"/>
+      <c r="F63" s="151"/>
       <c r="G63" s="117"/>
       <c r="H63" s="114">
         <v>43749</v>
@@ -7184,13 +7243,13 @@
         <v>119</v>
       </c>
       <c r="C64" s="99" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E64" s="130"/>
-      <c r="F64" s="130"/>
+      <c r="E64" s="151"/>
+      <c r="F64" s="151"/>
       <c r="G64" s="117"/>
       <c r="H64" s="114">
         <v>43749</v>
@@ -7208,13 +7267,13 @@
         <v>119</v>
       </c>
       <c r="C65" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="D65" s="129" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="130"/>
-      <c r="F65" s="130"/>
+      <c r="E65" s="151"/>
+      <c r="F65" s="151"/>
       <c r="G65" s="117"/>
       <c r="H65" s="114">
         <v>43749</v>
@@ -7224,7 +7283,7 @@
       </c>
       <c r="J65" s="85"/>
     </row>
-    <row r="66" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+    <row r="66" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
       <c r="A66" s="88" t="s">
         <v>181</v>
       </c>
@@ -7232,13 +7291,13 @@
         <v>119</v>
       </c>
       <c r="C66" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="D66" s="129" t="s">
-        <v>127</v>
-      </c>
-      <c r="E66" s="130"/>
-      <c r="F66" s="130"/>
+        <v>154</v>
+      </c>
+      <c r="D66" s="150" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" s="151"/>
+      <c r="F66" s="151"/>
       <c r="G66" s="117"/>
       <c r="H66" s="114">
         <v>43749</v>
@@ -7248,69 +7307,69 @@
       </c>
       <c r="J66" s="85"/>
     </row>
-    <row r="67" spans="1:10" s="181" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+    <row r="67" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
       <c r="A67" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="B67" s="174" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" s="175" t="s">
-        <v>158</v>
-      </c>
-      <c r="D67" s="176" t="s">
-        <v>216</v>
-      </c>
-      <c r="E67" s="177"/>
-      <c r="F67" s="177"/>
-      <c r="G67" s="178"/>
-      <c r="H67" s="121">
+      <c r="B67" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="150" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" s="151"/>
+      <c r="F67" s="151"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="114">
         <v>43749</v>
       </c>
-      <c r="I67" s="179" t="s">
+      <c r="I67" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="J67" s="180"/>
-    </row>
-    <row r="68" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+      <c r="J67" s="85"/>
+    </row>
+    <row r="68" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
       <c r="A68" s="88" t="s">
         <v>183</v>
       </c>
       <c r="B68" s="98" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C68" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="D68" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" s="130"/>
-      <c r="F68" s="130"/>
+        <v>156</v>
+      </c>
+      <c r="D68" s="150" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="151"/>
+      <c r="F68" s="151"/>
       <c r="G68" s="117"/>
       <c r="H68" s="114">
         <v>43749</v>
       </c>
       <c r="I68" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J68" s="85"/>
     </row>
-    <row r="69" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+    <row r="69" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
       <c r="A69" s="88" t="s">
         <v>184</v>
       </c>
       <c r="B69" s="98" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C69" s="99" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69" s="130"/>
-      <c r="F69" s="130"/>
+        <v>157</v>
+      </c>
+      <c r="D69" s="150" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" s="151"/>
+      <c r="F69" s="151"/>
       <c r="G69" s="117"/>
       <c r="H69" s="114">
         <v>43749</v>
@@ -7320,31 +7379,31 @@
       </c>
       <c r="J69" s="85"/>
     </row>
-    <row r="70" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+    <row r="70" spans="1:10" s="139" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
       <c r="A70" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="B70" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="E70" s="130"/>
-      <c r="F70" s="130"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="114">
+      <c r="B70" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="135" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="188" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" s="189"/>
+      <c r="F70" s="189"/>
+      <c r="G70" s="136"/>
+      <c r="H70" s="121">
         <v>43749</v>
       </c>
-      <c r="I70" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="J70" s="85"/>
-    </row>
-    <row r="71" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="I70" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="J70" s="138"/>
+    </row>
+    <row r="71" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
       <c r="A71" s="88" t="s">
         <v>186</v>
       </c>
@@ -7352,13 +7411,13 @@
         <v>131</v>
       </c>
       <c r="C71" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="D71" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="E71" s="130"/>
-      <c r="F71" s="130"/>
+      <c r="E71" s="151"/>
+      <c r="F71" s="151"/>
       <c r="G71" s="117"/>
       <c r="H71" s="114">
         <v>43749</v>
@@ -7376,23 +7435,23 @@
         <v>131</v>
       </c>
       <c r="C72" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="D72" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="E72" s="130"/>
-      <c r="F72" s="130"/>
+      <c r="E72" s="151"/>
+      <c r="F72" s="151"/>
       <c r="G72" s="117"/>
       <c r="H72" s="114">
         <v>43749</v>
       </c>
       <c r="I72" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J72" s="85"/>
     </row>
-    <row r="73" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+    <row r="73" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A73" s="88" t="s">
         <v>188</v>
       </c>
@@ -7400,23 +7459,23 @@
         <v>131</v>
       </c>
       <c r="C73" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="D73" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" s="130"/>
-      <c r="F73" s="130"/>
+        <v>161</v>
+      </c>
+      <c r="D73" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" s="151"/>
+      <c r="F73" s="151"/>
       <c r="G73" s="117"/>
       <c r="H73" s="114">
         <v>43749</v>
       </c>
       <c r="I73" s="87" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J73" s="85"/>
     </row>
-    <row r="74" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+    <row r="74" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A74" s="88" t="s">
         <v>189</v>
       </c>
@@ -7424,19 +7483,19 @@
         <v>131</v>
       </c>
       <c r="C74" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="D74" s="129" t="s">
-        <v>138</v>
-      </c>
-      <c r="E74" s="130"/>
-      <c r="F74" s="130"/>
+        <v>162</v>
+      </c>
+      <c r="D74" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" s="151"/>
+      <c r="F74" s="151"/>
       <c r="G74" s="117"/>
       <c r="H74" s="114">
         <v>43749</v>
       </c>
       <c r="I74" s="87" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J74" s="85"/>
     </row>
@@ -7448,23 +7507,23 @@
         <v>131</v>
       </c>
       <c r="C75" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="D75" s="129" t="s">
-        <v>138</v>
-      </c>
-      <c r="E75" s="130"/>
-      <c r="F75" s="130"/>
+        <v>163</v>
+      </c>
+      <c r="D75" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="151"/>
+      <c r="F75" s="151"/>
       <c r="G75" s="117"/>
       <c r="H75" s="114">
         <v>43749</v>
       </c>
       <c r="I75" s="87" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J75" s="85"/>
     </row>
-    <row r="76" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+    <row r="76" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
       <c r="A76" s="88" t="s">
         <v>191</v>
       </c>
@@ -7472,13 +7531,13 @@
         <v>131</v>
       </c>
       <c r="C76" s="99" t="s">
-        <v>168</v>
-      </c>
-      <c r="D76" s="129" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" s="130"/>
-      <c r="F76" s="130"/>
+        <v>165</v>
+      </c>
+      <c r="D76" s="150" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" s="151"/>
+      <c r="F76" s="151"/>
       <c r="G76" s="117"/>
       <c r="H76" s="114">
         <v>43749</v>
@@ -7488,7 +7547,7 @@
       </c>
       <c r="J76" s="85"/>
     </row>
-    <row r="77" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+    <row r="77" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
       <c r="A77" s="88" t="s">
         <v>192</v>
       </c>
@@ -7496,13 +7555,13 @@
         <v>131</v>
       </c>
       <c r="C77" s="99" t="s">
-        <v>169</v>
-      </c>
-      <c r="D77" s="129" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="150" t="s">
         <v>138</v>
       </c>
-      <c r="E77" s="130"/>
-      <c r="F77" s="130"/>
+      <c r="E77" s="151"/>
+      <c r="F77" s="151"/>
       <c r="G77" s="117"/>
       <c r="H77" s="114">
         <v>43749</v>
@@ -7520,13 +7579,13 @@
         <v>131</v>
       </c>
       <c r="C78" s="99" t="s">
-        <v>170</v>
-      </c>
-      <c r="D78" s="129" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="150" t="s">
         <v>138</v>
       </c>
-      <c r="E78" s="130"/>
-      <c r="F78" s="130"/>
+      <c r="E78" s="151"/>
+      <c r="F78" s="151"/>
       <c r="G78" s="117"/>
       <c r="H78" s="114">
         <v>43749</v>
@@ -7536,21 +7595,21 @@
       </c>
       <c r="J78" s="85"/>
     </row>
-    <row r="79" spans="1:10" s="4" customFormat="1" ht="30.75" customHeight="1" outlineLevel="1">
+    <row r="79" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A79" s="88" t="s">
         <v>194</v>
       </c>
       <c r="B79" s="98" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C79" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="D79" s="129" t="s">
-        <v>116</v>
-      </c>
-      <c r="E79" s="130"/>
-      <c r="F79" s="130"/>
+        <v>168</v>
+      </c>
+      <c r="D79" s="150" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="151"/>
+      <c r="F79" s="151"/>
       <c r="G79" s="117"/>
       <c r="H79" s="114">
         <v>43749</v>
@@ -7560,120 +7619,212 @@
       </c>
       <c r="J79" s="85"/>
     </row>
-    <row r="80" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A80" s="127" t="s">
+    <row r="80" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A80" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="150" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="151"/>
+      <c r="F80" s="151"/>
+      <c r="G80" s="117"/>
+      <c r="H80" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I80" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J80" s="85"/>
+    </row>
+    <row r="81" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A81" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="C81" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="D81" s="150" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" s="151"/>
+      <c r="F81" s="151"/>
+      <c r="G81" s="117"/>
+      <c r="H81" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I81" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J81" s="85"/>
+    </row>
+    <row r="82" spans="1:10" s="4" customFormat="1" ht="30.75" customHeight="1" outlineLevel="1">
+      <c r="A82" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="150" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="151"/>
+      <c r="F82" s="151"/>
+      <c r="G82" s="117"/>
+      <c r="H82" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I82" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J82" s="85"/>
+    </row>
+    <row r="83" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A83" s="148" t="s">
         <v>209</v>
       </c>
-      <c r="B80" s="128"/>
-      <c r="C80" s="128"/>
-      <c r="D80" s="108"/>
-      <c r="E80" s="108"/>
-      <c r="F80" s="108"/>
-      <c r="G80" s="115"/>
-      <c r="H80" s="115"/>
-      <c r="I80" s="115"/>
-      <c r="J80" s="116"/>
-    </row>
-    <row r="81" spans="1:10" s="189" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A81" s="182" t="s">
-        <v>195</v>
-      </c>
-      <c r="B81" s="183" t="s">
+      <c r="B83" s="149"/>
+      <c r="C83" s="149"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="108"/>
+      <c r="F83" s="108"/>
+      <c r="G83" s="115"/>
+      <c r="H83" s="115"/>
+      <c r="I83" s="115"/>
+      <c r="J83" s="116"/>
+    </row>
+    <row r="84" spans="1:10" s="145" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A84" s="140" t="s">
+        <v>211</v>
+      </c>
+      <c r="B84" s="141" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="142" t="s">
+        <v>200</v>
+      </c>
+      <c r="D84" s="186" t="s">
         <v>235</v>
       </c>
-      <c r="C81" s="184" t="s">
-        <v>200</v>
-      </c>
-      <c r="D81" s="185" t="s">
-        <v>236</v>
-      </c>
-      <c r="E81" s="186"/>
-      <c r="F81" s="186"/>
-      <c r="G81" s="187"/>
-      <c r="H81" s="121">
-        <v>43749</v>
-      </c>
-      <c r="I81" s="184" t="s">
-        <v>39</v>
-      </c>
-      <c r="J81" s="188"/>
-    </row>
-    <row r="82" spans="1:10" s="123" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A82" s="182" t="s">
-        <v>196</v>
-      </c>
-      <c r="B82" s="118" t="s">
-        <v>197</v>
-      </c>
-      <c r="C82" s="119" t="s">
-        <v>201</v>
-      </c>
-      <c r="D82" s="133" t="s">
-        <v>214</v>
-      </c>
-      <c r="E82" s="134"/>
-      <c r="F82" s="134"/>
-      <c r="G82" s="120"/>
-      <c r="H82" s="121">
-        <v>43749</v>
-      </c>
-      <c r="I82" s="119" t="s">
-        <v>215</v>
-      </c>
-      <c r="J82" s="122"/>
-    </row>
-    <row r="83" spans="1:10" s="123" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A83" s="182" t="s">
-        <v>210</v>
-      </c>
-      <c r="B83" s="118" t="s">
-        <v>197</v>
-      </c>
-      <c r="C83" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="D83" s="133" t="s">
-        <v>199</v>
-      </c>
-      <c r="E83" s="134"/>
-      <c r="F83" s="134"/>
-      <c r="G83" s="120"/>
-      <c r="H83" s="121">
-        <v>43749</v>
-      </c>
-      <c r="I83" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J83" s="122"/>
-    </row>
-    <row r="84" spans="1:10" s="123" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A84" s="182" t="s">
-        <v>211</v>
-      </c>
-      <c r="B84" s="118" t="s">
-        <v>197</v>
-      </c>
-      <c r="C84" s="119" t="s">
-        <v>203</v>
-      </c>
-      <c r="D84" s="133" t="s">
-        <v>204</v>
-      </c>
-      <c r="E84" s="134"/>
-      <c r="F84" s="134"/>
-      <c r="G84" s="120"/>
+      <c r="E84" s="187"/>
+      <c r="F84" s="187"/>
+      <c r="G84" s="143"/>
       <c r="H84" s="121">
         <v>43749</v>
       </c>
-      <c r="I84" s="87" t="s">
+      <c r="I84" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="J84" s="122"/>
-    </row>
-    <row r="85" spans="1:10" ht="12" customHeight="1"/>
-    <row r="86" spans="1:10" ht="12" customHeight="1"/>
-    <row r="87" spans="1:10" ht="12" customHeight="1"/>
-    <row r="88" spans="1:10" ht="12" customHeight="1"/>
+      <c r="J84" s="144"/>
+    </row>
+    <row r="85" spans="1:10" s="123" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A85" s="140" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="119" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="169" t="s">
+        <v>214</v>
+      </c>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
+      <c r="G85" s="120"/>
+      <c r="H85" s="121">
+        <v>43749</v>
+      </c>
+      <c r="I85" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="J85" s="122"/>
+    </row>
+    <row r="86" spans="1:10" s="123" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A86" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="B86" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" s="169" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" s="170"/>
+      <c r="F86" s="170"/>
+      <c r="G86" s="120"/>
+      <c r="H86" s="121">
+        <v>43749</v>
+      </c>
+      <c r="I86" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J86" s="122"/>
+    </row>
+    <row r="87" spans="1:10" s="123" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A87" s="140" t="s">
+        <v>242</v>
+      </c>
+      <c r="B87" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" s="169" t="s">
+        <v>204</v>
+      </c>
+      <c r="E87" s="170"/>
+      <c r="F87" s="170"/>
+      <c r="G87" s="120"/>
+      <c r="H87" s="121">
+        <v>43749</v>
+      </c>
+      <c r="I87" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J87" s="122"/>
+    </row>
+    <row r="88" spans="1:10" s="123" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A88" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" s="119" t="s">
+        <v>244</v>
+      </c>
+      <c r="D88" s="169" t="s">
+        <v>245</v>
+      </c>
+      <c r="E88" s="170"/>
+      <c r="F88" s="170"/>
+      <c r="G88" s="120"/>
+      <c r="H88" s="121">
+        <v>43749</v>
+      </c>
+      <c r="I88" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J88" s="122"/>
+    </row>
     <row r="89" spans="1:10" ht="12" customHeight="1"/>
     <row r="90" spans="1:10" ht="12" customHeight="1"/>
     <row r="91" spans="1:10" ht="12" customHeight="1"/>
@@ -7705,26 +7856,76 @@
     <row r="117" ht="12" customHeight="1"/>
     <row r="118" ht="12" customHeight="1"/>
     <row r="119" ht="12" customHeight="1"/>
+    <row r="120" ht="12" customHeight="1"/>
+    <row r="121" ht="12" customHeight="1"/>
+    <row r="122" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D78:F78"/>
+  <mergeCells count="95">
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D80:F80"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -7739,65 +7940,22 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="A11:J11"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A80:C80"/>
     <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="D61:F61"/>
     <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7912,7 +8070,7 @@
       </c>
       <c r="D8" s="76">
         <f>'Export all carrier choices'!B6</f>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E8" s="75">
         <f>'Export all carrier choices'!B7</f>
@@ -7924,7 +8082,7 @@
       </c>
       <c r="G8" s="76">
         <f>'Export all carrier choices'!D7</f>
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
@@ -7944,7 +8102,7 @@
       </c>
       <c r="D10" s="61">
         <f>SUM(D6:D9)</f>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E10" s="61">
         <f>SUM(E6:E9)</f>
@@ -7956,7 +8114,7 @@
       </c>
       <c r="G10" s="62">
         <f>SUM(G6:G9)</f>
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25">
@@ -7977,7 +8135,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="24">
         <f>(D10+E10)*100/G10</f>
-        <v>98.507462686567166</v>
+        <v>100</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>27</v>
@@ -7993,7 +8151,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="24">
         <f>D10*100/G10</f>
-        <v>86.567164179104481</v>
+        <v>88.732394366197184</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>27</v>

--- a/test-case-update.xlsx
+++ b/test-case-update.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuanLyHoTroDatVeXe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1635" yWindow="-210" windowWidth="12120" windowHeight="9120" tabRatio="821" activeTab="1"/>
   </bookViews>
@@ -24,7 +29,7 @@
     <definedName name="Port">[1]Validation!$F$2:$F$40</definedName>
     <definedName name="VancoProducts">[1]Validation!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1667,7 +1672,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2684,6 +2689,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2702,139 +2770,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2842,42 +2883,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5236,7 +5241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5271,7 +5276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5554,11 +5559,11 @@
       <c r="B6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="126"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="147"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -5567,11 +5572,11 @@
       <c r="B7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="125">
+      <c r="C7" s="146">
         <v>0</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="147"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -5774,8 +5779,8 @@
   </sheetPr>
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D73" sqref="D70:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -5794,9 +5799,9 @@
       <c r="A1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -5807,9 +5812,9 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -5822,49 +5827,49 @@
       <c r="A3" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="159"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" ht="12.75">
       <c r="A5" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="153"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="157"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5885,9 +5890,9 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -5908,16 +5913,16 @@
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="150"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -5927,70 +5932,70 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="160" t="s">
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="132" t="s">
+      <c r="I9" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="132" t="s">
+      <c r="J9" s="161" t="s">
         <v>78</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="132"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="161"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="162"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="168"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="154"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="158"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="51" outlineLevel="1">
       <c r="A13" s="88" t="s">
@@ -6002,11 +6007,11 @@
       <c r="C13" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
       <c r="G13" s="86"/>
       <c r="H13" s="102" t="s">
         <v>84</v>
@@ -6026,11 +6031,11 @@
       <c r="C14" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="146" t="s">
+      <c r="D14" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="147"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="182"/>
       <c r="G14" s="112"/>
       <c r="H14" s="102" t="s">
         <v>84</v>
@@ -6050,11 +6055,11 @@
       <c r="C15" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="D15" s="146" t="s">
+      <c r="D15" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="147"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="182"/>
       <c r="G15" s="112"/>
       <c r="H15" s="102" t="s">
         <v>84</v>
@@ -6074,11 +6079,11 @@
       <c r="C16" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="146" t="s">
+      <c r="D16" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="130"/>
-      <c r="F16" s="147"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="182"/>
       <c r="G16" s="86"/>
       <c r="H16" s="102" t="s">
         <v>84</v>
@@ -6089,11 +6094,11 @@
       <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
       <c r="D17" s="108"/>
       <c r="E17" s="108"/>
       <c r="F17" s="108"/>
@@ -6112,11 +6117,11 @@
       <c r="C18" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="129" t="s">
+      <c r="D18" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
       <c r="G18" s="86"/>
       <c r="H18" s="113" t="s">
         <v>84</v>
@@ -6136,11 +6141,11 @@
       <c r="C19" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
       <c r="G19" s="109"/>
       <c r="H19" s="113" t="s">
         <v>84</v>
@@ -6160,11 +6165,11 @@
       <c r="C20" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="129" t="s">
+      <c r="D20" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
       <c r="G20" s="109"/>
       <c r="H20" s="113" t="s">
         <v>84</v>
@@ -6184,11 +6189,11 @@
       <c r="C21" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="D21" s="129" t="s">
+      <c r="D21" s="150" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
       <c r="G21" s="109"/>
       <c r="H21" s="113" t="s">
         <v>84</v>
@@ -6208,11 +6213,11 @@
       <c r="C22" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="D22" s="129" t="s">
+      <c r="D22" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
       <c r="G22" s="109"/>
       <c r="H22" s="113" t="s">
         <v>84</v>
@@ -6232,11 +6237,11 @@
       <c r="C23" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
       <c r="G23" s="112"/>
       <c r="H23" s="113" t="s">
         <v>84</v>
@@ -6256,11 +6261,11 @@
       <c r="C24" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="D24" s="129" t="s">
+      <c r="D24" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
       <c r="G24" s="112"/>
       <c r="H24" s="113" t="s">
         <v>84</v>
@@ -6271,11 +6276,11 @@
       <c r="J24" s="85"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A25" s="127" t="s">
+      <c r="A25" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
       <c r="D25" s="108"/>
       <c r="E25" s="108"/>
       <c r="F25" s="108"/>
@@ -6294,11 +6299,11 @@
       <c r="C26" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="129" t="s">
+      <c r="D26" s="150" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
       <c r="G26" s="112"/>
       <c r="H26" s="114">
         <v>43596</v>
@@ -6318,11 +6323,11 @@
       <c r="C27" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="129" t="s">
+      <c r="D27" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
       <c r="G27" s="112"/>
       <c r="H27" s="114">
         <v>43749</v>
@@ -6342,11 +6347,11 @@
       <c r="C28" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="D28" s="129" t="s">
+      <c r="D28" s="150" t="s">
         <v>229</v>
       </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
       <c r="G28" s="117"/>
       <c r="H28" s="114">
         <v>43749</v>
@@ -6366,11 +6371,11 @@
       <c r="C29" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="129" t="s">
+      <c r="D29" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
       <c r="G29" s="117"/>
       <c r="H29" s="114">
         <v>43749</v>
@@ -6380,32 +6385,32 @@
       </c>
       <c r="J29" s="85"/>
     </row>
-    <row r="30" spans="1:10" s="171" customFormat="1" ht="33.75" customHeight="1" outlineLevel="1">
-      <c r="A30" s="163" t="s">
+    <row r="30" spans="1:10" s="131" customFormat="1" ht="33.75" customHeight="1" outlineLevel="1">
+      <c r="A30" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164" t="s">
+      <c r="B30" s="126" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="165" t="s">
+      <c r="C30" s="127" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="166" t="s">
+      <c r="D30" s="184" t="s">
         <v>231</v>
       </c>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="128"/>
       <c r="H30" s="114">
         <v>43749</v>
       </c>
-      <c r="I30" s="169" t="s">
+      <c r="I30" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="170"/>
+      <c r="J30" s="130"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="99.75" customHeight="1" outlineLevel="1">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="125" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="98" t="s">
@@ -6414,11 +6419,11 @@
       <c r="C31" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="129" t="s">
+      <c r="D31" s="150" t="s">
         <v>219</v>
       </c>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
       <c r="G31" s="117"/>
       <c r="H31" s="114">
         <v>43749</v>
@@ -6429,7 +6434,7 @@
       <c r="J31" s="85"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
-      <c r="A32" s="163" t="s">
+      <c r="A32" s="125" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="98" t="s">
@@ -6438,11 +6443,11 @@
       <c r="C32" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="129" t="s">
+      <c r="D32" s="150" t="s">
         <v>218</v>
       </c>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="183"/>
       <c r="G32" s="124"/>
       <c r="H32" s="114">
         <v>43749</v>
@@ -6453,7 +6458,7 @@
       <c r="J32" s="85"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
-      <c r="A33" s="163" t="s">
+      <c r="A33" s="125" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="98" t="s">
@@ -6462,11 +6467,11 @@
       <c r="C33" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="129" t="s">
+      <c r="D33" s="150" t="s">
         <v>221</v>
       </c>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
       <c r="G33" s="117"/>
       <c r="H33" s="114">
         <v>43749</v>
@@ -6477,7 +6482,7 @@
       <c r="J33" s="85"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="125" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="98" t="s">
@@ -6486,11 +6491,11 @@
       <c r="C34" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="129" t="s">
+      <c r="D34" s="150" t="s">
         <v>220</v>
       </c>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
       <c r="G34" s="117"/>
       <c r="H34" s="114">
         <v>43749</v>
@@ -6501,7 +6506,7 @@
       <c r="J34" s="85"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
-      <c r="A35" s="163" t="s">
+      <c r="A35" s="125" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="98" t="s">
@@ -6510,11 +6515,11 @@
       <c r="C35" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="129" t="s">
+      <c r="D35" s="150" t="s">
         <v>218</v>
       </c>
-      <c r="E35" s="131"/>
-      <c r="F35" s="131"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
       <c r="G35" s="124"/>
       <c r="H35" s="114">
         <v>43749</v>
@@ -6525,7 +6530,7 @@
       <c r="J35" s="85"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
-      <c r="A36" s="163" t="s">
+      <c r="A36" s="125" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="98" t="s">
@@ -6534,11 +6539,11 @@
       <c r="C36" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="D36" s="129" t="s">
+      <c r="D36" s="150" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
       <c r="G36" s="117"/>
       <c r="H36" s="114">
         <v>43749</v>
@@ -6549,7 +6554,7 @@
       <c r="J36" s="85"/>
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
-      <c r="A37" s="163" t="s">
+      <c r="A37" s="125" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="98" t="s">
@@ -6558,11 +6563,11 @@
       <c r="C37" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="129" t="s">
+      <c r="D37" s="150" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
       <c r="G37" s="117"/>
       <c r="H37" s="114">
         <v>43749</v>
@@ -6573,7 +6578,7 @@
       <c r="J37" s="85"/>
     </row>
     <row r="38" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
-      <c r="A38" s="163" t="s">
+      <c r="A38" s="125" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="98" t="s">
@@ -6582,11 +6587,11 @@
       <c r="C38" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="129" t="s">
+      <c r="D38" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
       <c r="G38" s="117"/>
       <c r="H38" s="114">
         <v>43749</v>
@@ -6597,11 +6602,11 @@
       <c r="J38" s="85"/>
     </row>
     <row r="39" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A39" s="127" t="s">
+      <c r="A39" s="148" t="s">
         <v>207</v>
       </c>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="149"/>
       <c r="D39" s="108"/>
       <c r="E39" s="108"/>
       <c r="F39" s="108"/>
@@ -6620,11 +6625,11 @@
       <c r="C40" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="129" t="s">
+      <c r="D40" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
       <c r="G40" s="117"/>
       <c r="H40" s="114">
         <v>43749</v>
@@ -6644,11 +6649,11 @@
       <c r="C41" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="129" t="s">
+      <c r="D41" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
       <c r="G41" s="117"/>
       <c r="H41" s="114">
         <v>43749</v>
@@ -6668,11 +6673,11 @@
       <c r="C42" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="129" t="s">
+      <c r="D42" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
       <c r="G42" s="117"/>
       <c r="H42" s="114">
         <v>43749</v>
@@ -6692,11 +6697,11 @@
       <c r="C43" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="129" t="s">
+      <c r="D43" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
       <c r="G43" s="117"/>
       <c r="H43" s="114">
         <v>43749</v>
@@ -6716,11 +6721,11 @@
       <c r="C44" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="129" t="s">
+      <c r="D44" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
       <c r="G44" s="117"/>
       <c r="H44" s="114">
         <v>43749</v>
@@ -6740,11 +6745,11 @@
       <c r="C45" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="129" t="s">
+      <c r="D45" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
       <c r="G45" s="117"/>
       <c r="H45" s="114">
         <v>43749</v>
@@ -6764,11 +6769,11 @@
       <c r="C46" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="129" t="s">
+      <c r="D46" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
       <c r="G46" s="117"/>
       <c r="H46" s="114">
         <v>43749</v>
@@ -6788,11 +6793,11 @@
       <c r="C47" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="129" t="s">
+      <c r="D47" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="130"/>
-      <c r="F47" s="130"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
       <c r="G47" s="117"/>
       <c r="H47" s="114">
         <v>43749</v>
@@ -6812,11 +6817,11 @@
       <c r="C48" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="129" t="s">
+      <c r="D48" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
       <c r="G48" s="117"/>
       <c r="H48" s="114">
         <v>43749</v>
@@ -6836,11 +6841,11 @@
       <c r="C49" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="D49" s="129" t="s">
+      <c r="D49" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
       <c r="G49" s="117"/>
       <c r="H49" s="114">
         <v>43749</v>
@@ -6860,11 +6865,11 @@
       <c r="C50" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="129" t="s">
+      <c r="D50" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
       <c r="G50" s="117"/>
       <c r="H50" s="114">
         <v>43749</v>
@@ -6878,17 +6883,17 @@
       <c r="A51" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="172" t="s">
+      <c r="B51" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="173" t="s">
+      <c r="C51" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="133" t="s">
+      <c r="D51" s="169" t="s">
         <v>217</v>
       </c>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
+      <c r="E51" s="170"/>
+      <c r="F51" s="170"/>
       <c r="G51" s="120"/>
       <c r="H51" s="121">
         <v>43749</v>
@@ -6908,11 +6913,11 @@
       <c r="C52" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="129" t="s">
+      <c r="D52" s="150" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
+      <c r="E52" s="151"/>
+      <c r="F52" s="151"/>
       <c r="G52" s="117"/>
       <c r="H52" s="114">
         <v>43749</v>
@@ -6932,11 +6937,11 @@
       <c r="C53" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="129" t="s">
+      <c r="D53" s="150" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
+      <c r="E53" s="151"/>
+      <c r="F53" s="151"/>
       <c r="G53" s="117"/>
       <c r="H53" s="114">
         <v>43749</v>
@@ -6956,11 +6961,11 @@
       <c r="C54" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="129" t="s">
+      <c r="D54" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
+      <c r="E54" s="151"/>
+      <c r="F54" s="151"/>
       <c r="G54" s="117"/>
       <c r="H54" s="114">
         <v>43749</v>
@@ -6971,11 +6976,11 @@
       <c r="J54" s="85"/>
     </row>
     <row r="55" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A55" s="127" t="s">
+      <c r="A55" s="148" t="s">
         <v>208</v>
       </c>
-      <c r="B55" s="128"/>
-      <c r="C55" s="128"/>
+      <c r="B55" s="149"/>
+      <c r="C55" s="149"/>
       <c r="D55" s="108"/>
       <c r="E55" s="108"/>
       <c r="F55" s="108"/>
@@ -6994,11 +6999,11 @@
       <c r="C56" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="D56" s="129" t="s">
+      <c r="D56" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E56" s="130"/>
-      <c r="F56" s="130"/>
+      <c r="E56" s="151"/>
+      <c r="F56" s="151"/>
       <c r="G56" s="117"/>
       <c r="H56" s="114">
         <v>43749</v>
@@ -7018,11 +7023,11 @@
       <c r="C57" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="129" t="s">
+      <c r="D57" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
+      <c r="E57" s="151"/>
+      <c r="F57" s="151"/>
       <c r="G57" s="117"/>
       <c r="H57" s="114">
         <v>43749</v>
@@ -7042,11 +7047,11 @@
       <c r="C58" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="D58" s="129" t="s">
+      <c r="D58" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E58" s="130"/>
-      <c r="F58" s="130"/>
+      <c r="E58" s="151"/>
+      <c r="F58" s="151"/>
       <c r="G58" s="117"/>
       <c r="H58" s="114">
         <v>43749</v>
@@ -7066,11 +7071,11 @@
       <c r="C59" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="D59" s="129" t="s">
+      <c r="D59" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
+      <c r="E59" s="151"/>
+      <c r="F59" s="151"/>
       <c r="G59" s="117"/>
       <c r="H59" s="114">
         <v>43749</v>
@@ -7090,11 +7095,11 @@
       <c r="C60" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="129" t="s">
+      <c r="D60" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
+      <c r="E60" s="151"/>
+      <c r="F60" s="151"/>
       <c r="G60" s="117"/>
       <c r="H60" s="114">
         <v>43749</v>
@@ -7114,11 +7119,11 @@
       <c r="C61" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="129" t="s">
+      <c r="D61" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E61" s="130"/>
-      <c r="F61" s="130"/>
+      <c r="E61" s="151"/>
+      <c r="F61" s="151"/>
       <c r="G61" s="117"/>
       <c r="H61" s="114">
         <v>43749</v>
@@ -7138,11 +7143,11 @@
       <c r="C62" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="D62" s="129" t="s">
+      <c r="D62" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
+      <c r="E62" s="151"/>
+      <c r="F62" s="151"/>
       <c r="G62" s="117"/>
       <c r="H62" s="114">
         <v>43749</v>
@@ -7162,11 +7167,11 @@
       <c r="C63" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D63" s="129" t="s">
+      <c r="D63" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
+      <c r="E63" s="151"/>
+      <c r="F63" s="151"/>
       <c r="G63" s="117"/>
       <c r="H63" s="114">
         <v>43749</v>
@@ -7186,11 +7191,11 @@
       <c r="C64" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="D64" s="129" t="s">
+      <c r="D64" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E64" s="130"/>
-      <c r="F64" s="130"/>
+      <c r="E64" s="151"/>
+      <c r="F64" s="151"/>
       <c r="G64" s="117"/>
       <c r="H64" s="114">
         <v>43749</v>
@@ -7210,11 +7215,11 @@
       <c r="C65" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="D65" s="129" t="s">
+      <c r="D65" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="130"/>
-      <c r="F65" s="130"/>
+      <c r="E65" s="151"/>
+      <c r="F65" s="151"/>
       <c r="G65" s="117"/>
       <c r="H65" s="114">
         <v>43749</v>
@@ -7234,11 +7239,11 @@
       <c r="C66" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="D66" s="129" t="s">
+      <c r="D66" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="E66" s="130"/>
-      <c r="F66" s="130"/>
+      <c r="E66" s="151"/>
+      <c r="F66" s="151"/>
       <c r="G66" s="117"/>
       <c r="H66" s="114">
         <v>43749</v>
@@ -7248,29 +7253,29 @@
       </c>
       <c r="J66" s="85"/>
     </row>
-    <row r="67" spans="1:10" s="181" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+    <row r="67" spans="1:10" s="139" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
       <c r="A67" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="B67" s="174" t="s">
+      <c r="B67" s="134" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="175" t="s">
+      <c r="C67" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="D67" s="176" t="s">
+      <c r="D67" s="188" t="s">
         <v>216</v>
       </c>
-      <c r="E67" s="177"/>
-      <c r="F67" s="177"/>
-      <c r="G67" s="178"/>
+      <c r="E67" s="189"/>
+      <c r="F67" s="189"/>
+      <c r="G67" s="136"/>
       <c r="H67" s="121">
         <v>43749</v>
       </c>
-      <c r="I67" s="179" t="s">
+      <c r="I67" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="J67" s="180"/>
+      <c r="J67" s="138"/>
     </row>
     <row r="68" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
       <c r="A68" s="88" t="s">
@@ -7282,11 +7287,11 @@
       <c r="C68" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="129" t="s">
+      <c r="D68" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="E68" s="130"/>
-      <c r="F68" s="130"/>
+      <c r="E68" s="151"/>
+      <c r="F68" s="151"/>
       <c r="G68" s="117"/>
       <c r="H68" s="114">
         <v>43749</v>
@@ -7306,11 +7311,11 @@
       <c r="C69" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="129" t="s">
+      <c r="D69" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="E69" s="130"/>
-      <c r="F69" s="130"/>
+      <c r="E69" s="151"/>
+      <c r="F69" s="151"/>
       <c r="G69" s="117"/>
       <c r="H69" s="114">
         <v>43749</v>
@@ -7330,11 +7335,11 @@
       <c r="C70" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="D70" s="129" t="s">
+      <c r="D70" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="E70" s="130"/>
-      <c r="F70" s="130"/>
+      <c r="E70" s="151"/>
+      <c r="F70" s="151"/>
       <c r="G70" s="117"/>
       <c r="H70" s="114">
         <v>43749</v>
@@ -7354,11 +7359,11 @@
       <c r="C71" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="D71" s="129" t="s">
+      <c r="D71" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="E71" s="130"/>
-      <c r="F71" s="130"/>
+      <c r="E71" s="151"/>
+      <c r="F71" s="151"/>
       <c r="G71" s="117"/>
       <c r="H71" s="114">
         <v>43749</v>
@@ -7378,11 +7383,11 @@
       <c r="C72" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="D72" s="129" t="s">
+      <c r="D72" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="E72" s="130"/>
-      <c r="F72" s="130"/>
+      <c r="E72" s="151"/>
+      <c r="F72" s="151"/>
       <c r="G72" s="117"/>
       <c r="H72" s="114">
         <v>43749</v>
@@ -7402,11 +7407,11 @@
       <c r="C73" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="D73" s="129" t="s">
+      <c r="D73" s="150" t="s">
         <v>164</v>
       </c>
-      <c r="E73" s="130"/>
-      <c r="F73" s="130"/>
+      <c r="E73" s="151"/>
+      <c r="F73" s="151"/>
       <c r="G73" s="117"/>
       <c r="H73" s="114">
         <v>43749</v>
@@ -7426,11 +7431,11 @@
       <c r="C74" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="D74" s="129" t="s">
+      <c r="D74" s="150" t="s">
         <v>138</v>
       </c>
-      <c r="E74" s="130"/>
-      <c r="F74" s="130"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="151"/>
       <c r="G74" s="117"/>
       <c r="H74" s="114">
         <v>43749</v>
@@ -7450,11 +7455,11 @@
       <c r="C75" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="D75" s="129" t="s">
+      <c r="D75" s="150" t="s">
         <v>138</v>
       </c>
-      <c r="E75" s="130"/>
-      <c r="F75" s="130"/>
+      <c r="E75" s="151"/>
+      <c r="F75" s="151"/>
       <c r="G75" s="117"/>
       <c r="H75" s="114">
         <v>43749</v>
@@ -7474,11 +7479,11 @@
       <c r="C76" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="129" t="s">
+      <c r="D76" s="150" t="s">
         <v>138</v>
       </c>
-      <c r="E76" s="130"/>
-      <c r="F76" s="130"/>
+      <c r="E76" s="151"/>
+      <c r="F76" s="151"/>
       <c r="G76" s="117"/>
       <c r="H76" s="114">
         <v>43749</v>
@@ -7498,11 +7503,11 @@
       <c r="C77" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="D77" s="129" t="s">
+      <c r="D77" s="150" t="s">
         <v>138</v>
       </c>
-      <c r="E77" s="130"/>
-      <c r="F77" s="130"/>
+      <c r="E77" s="151"/>
+      <c r="F77" s="151"/>
       <c r="G77" s="117"/>
       <c r="H77" s="114">
         <v>43749</v>
@@ -7522,11 +7527,11 @@
       <c r="C78" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="D78" s="129" t="s">
+      <c r="D78" s="150" t="s">
         <v>138</v>
       </c>
-      <c r="E78" s="130"/>
-      <c r="F78" s="130"/>
+      <c r="E78" s="151"/>
+      <c r="F78" s="151"/>
       <c r="G78" s="117"/>
       <c r="H78" s="114">
         <v>43749</v>
@@ -7546,11 +7551,11 @@
       <c r="C79" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="D79" s="129" t="s">
+      <c r="D79" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="E79" s="130"/>
-      <c r="F79" s="130"/>
+      <c r="E79" s="151"/>
+      <c r="F79" s="151"/>
       <c r="G79" s="117"/>
       <c r="H79" s="114">
         <v>43749</v>
@@ -7561,11 +7566,11 @@
       <c r="J79" s="85"/>
     </row>
     <row r="80" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A80" s="127" t="s">
+      <c r="A80" s="148" t="s">
         <v>209</v>
       </c>
-      <c r="B80" s="128"/>
-      <c r="C80" s="128"/>
+      <c r="B80" s="149"/>
+      <c r="C80" s="149"/>
       <c r="D80" s="108"/>
       <c r="E80" s="108"/>
       <c r="F80" s="108"/>
@@ -7574,32 +7579,32 @@
       <c r="I80" s="115"/>
       <c r="J80" s="116"/>
     </row>
-    <row r="81" spans="1:10" s="189" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A81" s="182" t="s">
+    <row r="81" spans="1:10" s="145" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A81" s="140" t="s">
         <v>195</v>
       </c>
-      <c r="B81" s="183" t="s">
+      <c r="B81" s="141" t="s">
         <v>235</v>
       </c>
-      <c r="C81" s="184" t="s">
+      <c r="C81" s="142" t="s">
         <v>200</v>
       </c>
-      <c r="D81" s="185" t="s">
+      <c r="D81" s="186" t="s">
         <v>236</v>
       </c>
-      <c r="E81" s="186"/>
-      <c r="F81" s="186"/>
-      <c r="G81" s="187"/>
+      <c r="E81" s="187"/>
+      <c r="F81" s="187"/>
+      <c r="G81" s="143"/>
       <c r="H81" s="121">
         <v>43749</v>
       </c>
-      <c r="I81" s="184" t="s">
+      <c r="I81" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="J81" s="188"/>
+      <c r="J81" s="144"/>
     </row>
     <row r="82" spans="1:10" s="123" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A82" s="182" t="s">
+      <c r="A82" s="140" t="s">
         <v>196</v>
       </c>
       <c r="B82" s="118" t="s">
@@ -7608,11 +7613,11 @@
       <c r="C82" s="119" t="s">
         <v>201</v>
       </c>
-      <c r="D82" s="133" t="s">
+      <c r="D82" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="E82" s="134"/>
-      <c r="F82" s="134"/>
+      <c r="E82" s="170"/>
+      <c r="F82" s="170"/>
       <c r="G82" s="120"/>
       <c r="H82" s="121">
         <v>43749</v>
@@ -7623,7 +7628,7 @@
       <c r="J82" s="122"/>
     </row>
     <row r="83" spans="1:10" s="123" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A83" s="182" t="s">
+      <c r="A83" s="140" t="s">
         <v>210</v>
       </c>
       <c r="B83" s="118" t="s">
@@ -7632,11 +7637,11 @@
       <c r="C83" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="D83" s="133" t="s">
+      <c r="D83" s="169" t="s">
         <v>199</v>
       </c>
-      <c r="E83" s="134"/>
-      <c r="F83" s="134"/>
+      <c r="E83" s="170"/>
+      <c r="F83" s="170"/>
       <c r="G83" s="120"/>
       <c r="H83" s="121">
         <v>43749</v>
@@ -7647,7 +7652,7 @@
       <c r="J83" s="122"/>
     </row>
     <row r="84" spans="1:10" s="123" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A84" s="182" t="s">
+      <c r="A84" s="140" t="s">
         <v>211</v>
       </c>
       <c r="B84" s="118" t="s">
@@ -7656,11 +7661,11 @@
       <c r="C84" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="D84" s="133" t="s">
+      <c r="D84" s="169" t="s">
         <v>204</v>
       </c>
-      <c r="E84" s="134"/>
-      <c r="F84" s="134"/>
+      <c r="E84" s="170"/>
+      <c r="F84" s="170"/>
       <c r="G84" s="120"/>
       <c r="H84" s="121">
         <v>43749</v>
@@ -7707,6 +7712,81 @@
     <row r="119" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
@@ -7723,81 +7803,6 @@
     <mergeCell ref="D70:F70"/>
     <mergeCell ref="D71:F71"/>
     <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D66:F66"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
